--- a/Support/Sunac2019/Data/原型数据.xlsx
+++ b/Support/Sunac2019/Data/原型数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="331">
   <si>
     <t>序号</t>
   </si>
@@ -975,9 +975,6 @@
     <t>Window_NDC7_1</t>
   </si>
   <si>
-    <t>Window_NDC_8</t>
-  </si>
-  <si>
     <t>Window_NDC9_0</t>
   </si>
   <si>
@@ -1298,6 +1295,14 @@
   </si>
   <si>
     <t>Door_TSTLM3.dwg</t>
+  </si>
+  <si>
+    <t>Window_NDC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NDC8.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1741,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1960,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -2636,10 +2641,10 @@
     <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2727,7 +2732,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2738,7 +2743,7 @@
     <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
@@ -3389,7 +3394,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3497,7 +3502,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3605,7 +3610,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -4576,10 +4581,10 @@
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4669,14 +4674,14 @@
       </c>
       <c r="AZ28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Window_NDC_8_P.dwg</v>
+        <v>Window_NDC8_P.dwg</v>
       </c>
       <c r="BA28" s="4"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>184</v>
@@ -4780,7 +4785,7 @@
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>185</v>
@@ -4884,7 +4889,7 @@
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>186</v>
@@ -4988,7 +4993,7 @@
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>187</v>
@@ -5096,7 +5101,7 @@
     <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>188</v>
@@ -5204,7 +5209,7 @@
     <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>189</v>
@@ -5312,7 +5317,7 @@
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>190</v>
@@ -5510,7 +5515,7 @@
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>192</v>
@@ -5610,7 +5615,7 @@
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>193</v>
@@ -5706,7 +5711,7 @@
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>194</v>
@@ -5806,7 +5811,7 @@
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>195</v>
@@ -5904,7 +5909,7 @@
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>196</v>
@@ -6004,7 +6009,7 @@
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>197</v>
@@ -6100,7 +6105,7 @@
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>198</v>
@@ -6200,7 +6205,7 @@
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>199</v>
@@ -6302,7 +6307,7 @@
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>200</v>
@@ -6406,7 +6411,7 @@
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>201</v>
@@ -6506,7 +6511,7 @@
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>202</v>
@@ -6610,7 +6615,7 @@
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>203</v>
@@ -6718,7 +6723,7 @@
     <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>204</v>
@@ -6826,7 +6831,7 @@
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>205</v>
@@ -6928,7 +6933,7 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>206</v>
@@ -7024,7 +7029,7 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>207</v>
@@ -7124,7 +7129,7 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>208</v>
@@ -7220,10 +7225,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7316,10 +7321,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7414,10 +7419,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7510,10 +7515,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7608,10 +7613,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7629,10 +7634,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="4">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="J58" s="4">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>83</v>
@@ -7704,10 +7709,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7800,7 +7805,7 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>215</v>
@@ -7896,7 +7901,7 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>216</v>
@@ -7994,7 +7999,7 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>217</v>
@@ -8090,7 +8095,7 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>218</v>
@@ -8188,7 +8193,7 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>219</v>
@@ -8288,7 +8293,7 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>220</v>
@@ -8394,7 +8399,7 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>221</v>
@@ -8492,7 +8497,7 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>222</v>
@@ -8805,25 +8810,25 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8832,7 +8837,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
@@ -8850,7 +8855,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>118</v>
@@ -8862,7 +8867,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>114</v>
@@ -8879,10 +8884,10 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -8891,7 +8896,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>115</v>
@@ -8909,7 +8914,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>119</v>
@@ -8921,7 +8926,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>58</v>
@@ -8939,7 +8944,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>120</v>
@@ -8951,7 +8956,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>114</v>
@@ -8969,7 +8974,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>121</v>
@@ -8981,7 +8986,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>115</v>
@@ -8999,7 +9004,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>122</v>
@@ -9011,7 +9016,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>58</v>
@@ -9029,7 +9034,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>123</v>
@@ -9041,7 +9046,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>114</v>
@@ -9058,10 +9063,10 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -9070,10 +9075,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H10" s="22">
         <v>1300</v>
@@ -9088,7 +9093,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>124</v>
@@ -9100,7 +9105,7 @@
         <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>58</v>
@@ -9118,7 +9123,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>125</v>
@@ -9130,7 +9135,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>114</v>
@@ -9148,7 +9153,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>126</v>
@@ -9160,7 +9165,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>115</v>
@@ -9177,7 +9182,7 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>127</v>
@@ -9189,7 +9194,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>58</v>
@@ -9206,7 +9211,7 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>128</v>
@@ -9218,7 +9223,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>114</v>
@@ -9235,10 +9240,10 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="D16" s="17">
         <v>1.5</v>
@@ -9247,7 +9252,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>115</v>
@@ -9264,7 +9269,7 @@
     </row>
     <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>129</v>
@@ -9276,7 +9281,7 @@
         <v>115</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>58</v>
@@ -9293,7 +9298,7 @@
     </row>
     <row r="18" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>130</v>
@@ -9305,7 +9310,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>114</v>
@@ -9322,10 +9327,10 @@
     </row>
     <row r="19" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>299</v>
       </c>
       <c r="D19" s="17">
         <v>1.5</v>
@@ -9334,7 +9339,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>115</v>
@@ -9351,10 +9356,10 @@
     </row>
     <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
@@ -9363,7 +9368,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>58</v>
@@ -9380,10 +9385,10 @@
     </row>
     <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
@@ -9392,7 +9397,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>114</v>
@@ -9409,10 +9414,10 @@
     </row>
     <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>311</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -9421,10 +9426,10 @@
         <v>114</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H22" s="22">
         <v>1300</v>
@@ -9438,7 +9443,7 @@
     </row>
     <row r="23" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>131</v>
@@ -9450,7 +9455,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>58</v>
@@ -9467,7 +9472,7 @@
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>132</v>
@@ -9479,7 +9484,7 @@
         <v>115</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>114</v>
@@ -9496,7 +9501,7 @@
     </row>
     <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>133</v>
@@ -9508,7 +9513,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>115</v>

--- a/Support/Sunac2019/Data/原型数据.xlsx
+++ b/Support/Sunac2019/Data/原型数据.xlsx
@@ -804,9 +804,6 @@
     <t>Window_NDC7_1.dwg</t>
   </si>
   <si>
-    <t>Window_NDC_8.dwg</t>
-  </si>
-  <si>
     <t>Window_NDC9_0.dwg</t>
   </si>
   <si>
@@ -1298,6 +1295,10 @@
   </si>
   <si>
     <t>Window_NDC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window_NDC8.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1746,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="AO4" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1952,7 @@
     <row r="2" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>161</v>
@@ -1960,7 +1961,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -2641,10 +2642,10 @@
     <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2732,7 +2733,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2743,7 +2744,7 @@
     <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
@@ -2947,7 +2948,7 @@
     <row r="12" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>167</v>
@@ -3051,7 +3052,7 @@
     <row r="13" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>168</v>
@@ -3155,7 +3156,7 @@
     <row r="14" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>169</v>
@@ -3259,7 +3260,7 @@
     <row r="15" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>170</v>
@@ -3367,7 +3368,7 @@
     <row r="16" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>171</v>
@@ -3394,7 +3395,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3475,7 +3476,7 @@
     <row r="17" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>
@@ -3502,7 +3503,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3583,7 +3584,7 @@
     <row r="18" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>173</v>
@@ -3610,7 +3611,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3685,7 +3686,7 @@
     <row r="19" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>174</v>
@@ -3781,7 +3782,7 @@
     <row r="20" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>175</v>
@@ -3879,7 +3880,7 @@
     <row r="21" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>176</v>
@@ -3979,7 +3980,7 @@
     <row r="22" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>177</v>
@@ -4075,7 +4076,7 @@
     <row r="23" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>178</v>
@@ -4175,7 +4176,7 @@
     <row r="24" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>179</v>
@@ -4275,7 +4276,7 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>180</v>
@@ -4375,7 +4376,7 @@
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
@@ -4477,7 +4478,7 @@
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
@@ -4573,7 +4574,7 @@
         <v>182</v>
       </c>
       <c r="AZ27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(C27,".","_P.",1)</f>
         <v>Window_NDC7_1_P.dwg</v>
       </c>
       <c r="BA27" s="4"/>
@@ -4581,10 +4582,10 @@
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4670,10 +4671,10 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="AZ28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(C28,".","_P.",1)</f>
         <v>Window_NDC8_P.dwg</v>
       </c>
       <c r="BA28" s="4"/>
@@ -4681,10 +4682,10 @@
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -4774,10 +4775,10 @@
       <c r="AW29" s="4"/>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(C29,".","_P.",1)</f>
         <v>Window_NDC9_0_P.dwg</v>
       </c>
       <c r="BA29" s="4"/>
@@ -4785,10 +4786,10 @@
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>
@@ -4878,7 +4879,7 @@
       <c r="AW30" s="4"/>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ30" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4889,10 +4890,10 @@
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>52</v>
@@ -4982,7 +4983,7 @@
       <c r="AW31" s="4"/>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AZ31" s="18" t="str">
         <f t="shared" si="0"/>
@@ -4993,10 +4994,10 @@
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>52</v>
@@ -5090,7 +5091,7 @@
       <c r="AW32" s="4"/>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AZ32" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5101,10 +5102,10 @@
     <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>52</v>
@@ -5198,7 +5199,7 @@
       <c r="AW33" s="4"/>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AZ33" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5209,10 +5210,10 @@
     <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>52</v>
@@ -5306,7 +5307,7 @@
       <c r="AW34" s="4"/>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AZ34" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5317,10 +5318,10 @@
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>52</v>
@@ -5408,7 +5409,7 @@
       <c r="AW35" s="4"/>
       <c r="AX35" s="4"/>
       <c r="AY35" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AZ35" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5422,7 +5423,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>52</v>
@@ -5504,7 +5505,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AZ36" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5515,10 +5516,10 @@
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -5604,7 +5605,7 @@
       <c r="AW37" s="4"/>
       <c r="AX37" s="4"/>
       <c r="AY37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AZ37" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5615,10 +5616,10 @@
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>52</v>
@@ -5700,7 +5701,7 @@
       <c r="AW38" s="4"/>
       <c r="AX38" s="4"/>
       <c r="AY38" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AZ38" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5711,10 +5712,10 @@
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>52</v>
@@ -5800,7 +5801,7 @@
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
       <c r="AY39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ39" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5811,10 +5812,10 @@
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>52</v>
@@ -5898,7 +5899,7 @@
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AZ40" s="18" t="str">
         <f t="shared" si="0"/>
@@ -5909,10 +5910,10 @@
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>52</v>
@@ -5998,7 +5999,7 @@
       <c r="AW41" s="4"/>
       <c r="AX41" s="4"/>
       <c r="AY41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AZ41" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6009,10 +6010,10 @@
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>52</v>
@@ -6094,7 +6095,7 @@
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
       <c r="AY42" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AZ42" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6105,10 +6106,10 @@
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>52</v>
@@ -6194,7 +6195,7 @@
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
       <c r="AY43" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AZ43" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6205,10 +6206,10 @@
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>52</v>
@@ -6296,7 +6297,7 @@
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
       <c r="AY44" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AZ44" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6307,10 +6308,10 @@
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>52</v>
@@ -6400,7 +6401,7 @@
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
       <c r="AY45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AZ45" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6411,10 +6412,10 @@
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>52</v>
@@ -6500,7 +6501,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
       <c r="AY46" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AZ46" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6511,10 +6512,10 @@
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>52</v>
@@ -6604,7 +6605,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
       <c r="AY47" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AZ47" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6615,10 +6616,10 @@
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>52</v>
@@ -6712,7 +6713,7 @@
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AZ48" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6723,10 +6724,10 @@
     <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -6820,7 +6821,7 @@
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
       <c r="AY49" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AZ49" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6831,10 +6832,10 @@
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>52</v>
@@ -6922,7 +6923,7 @@
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
       <c r="AY50" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AZ50" s="18" t="str">
         <f t="shared" si="0"/>
@@ -6933,10 +6934,10 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>52</v>
@@ -7018,7 +7019,7 @@
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
       <c r="AY51" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AZ51" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7029,10 +7030,10 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>52</v>
@@ -7118,7 +7119,7 @@
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
       <c r="AY52" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ52" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7129,10 +7130,10 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>52</v>
@@ -7214,7 +7215,7 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="4"/>
       <c r="AY53" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ53" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7225,10 +7226,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7310,7 +7311,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7321,10 +7322,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7408,7 +7409,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7419,10 +7420,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7504,7 +7505,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7515,10 +7516,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7602,7 +7603,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f>SUBSTITUTE(C57,".","_P.",1)</f>
@@ -7613,10 +7614,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7698,7 +7699,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f>SUBSTITUTE(C58,".","_P.",1)</f>
@@ -7709,10 +7710,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7794,7 +7795,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7805,10 +7806,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7890,7 +7891,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7901,10 +7902,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7988,7 +7989,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7999,10 +8000,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -8084,7 +8085,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8095,10 +8096,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -8182,7 +8183,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8193,10 +8194,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8282,7 +8283,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8293,10 +8294,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8388,7 +8389,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8399,10 +8400,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8486,7 +8487,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8497,10 +8498,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8590,7 +8591,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8810,25 +8811,25 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8837,7 +8838,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
@@ -8855,7 +8856,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>118</v>
@@ -8867,7 +8868,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>114</v>
@@ -8884,10 +8885,10 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -8896,7 +8897,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>115</v>
@@ -8914,7 +8915,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>119</v>
@@ -8926,7 +8927,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>58</v>
@@ -8944,7 +8945,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>120</v>
@@ -8956,7 +8957,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>114</v>
@@ -8974,7 +8975,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>121</v>
@@ -8986,7 +8987,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>115</v>
@@ -9004,7 +9005,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>122</v>
@@ -9016,7 +9017,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>58</v>
@@ -9034,7 +9035,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>123</v>
@@ -9046,7 +9047,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>114</v>
@@ -9063,10 +9064,10 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -9075,10 +9076,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10" s="22">
         <v>1300</v>
@@ -9093,7 +9094,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>124</v>
@@ -9105,7 +9106,7 @@
         <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>58</v>
@@ -9123,7 +9124,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>125</v>
@@ -9135,7 +9136,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>114</v>
@@ -9153,7 +9154,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>126</v>
@@ -9165,7 +9166,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>115</v>
@@ -9182,7 +9183,7 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>127</v>
@@ -9194,7 +9195,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>58</v>
@@ -9211,7 +9212,7 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>128</v>
@@ -9223,7 +9224,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>114</v>
@@ -9240,10 +9241,10 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D16" s="17">
         <v>1.5</v>
@@ -9252,7 +9253,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>115</v>
@@ -9269,7 +9270,7 @@
     </row>
     <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>129</v>
@@ -9281,7 +9282,7 @@
         <v>115</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>58</v>
@@ -9298,7 +9299,7 @@
     </row>
     <row r="18" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>130</v>
@@ -9310,7 +9311,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>114</v>
@@ -9327,10 +9328,10 @@
     </row>
     <row r="19" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="D19" s="17">
         <v>1.5</v>
@@ -9339,7 +9340,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>115</v>
@@ -9356,10 +9357,10 @@
     </row>
     <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
@@ -9368,7 +9369,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>58</v>
@@ -9385,10 +9386,10 @@
     </row>
     <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
@@ -9397,7 +9398,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>114</v>
@@ -9414,10 +9415,10 @@
     </row>
     <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -9426,10 +9427,10 @@
         <v>114</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H22" s="22">
         <v>1300</v>
@@ -9443,7 +9444,7 @@
     </row>
     <row r="23" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>131</v>
@@ -9455,7 +9456,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>58</v>
@@ -9472,7 +9473,7 @@
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>132</v>
@@ -9484,7 +9485,7 @@
         <v>115</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>114</v>
@@ -9501,7 +9502,7 @@
     </row>
     <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>133</v>
@@ -9513,7 +9514,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>115</v>

--- a/Support/Sunac2019/Data/原型数据.xlsx
+++ b/Support/Sunac2019/Data/原型数据.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="329">
   <si>
     <t>序号</t>
   </si>
@@ -888,15 +888,6 @@
     <t>Door_TLM4.dwg</t>
   </si>
   <si>
-    <t>Door_TLM5.dwg</t>
-  </si>
-  <si>
-    <t>Door_TLM6.dwg</t>
-  </si>
-  <si>
-    <t>Door_TLM7.dwg</t>
-  </si>
-  <si>
     <t>Door_WM1.dwg</t>
   </si>
   <si>
@@ -1303,6 +1294,10 @@
   </si>
   <si>
     <t>Window_NDC8.dwg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Door_TSTLM1.dwg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO4" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1947,7 @@
     <row r="2" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>161</v>
@@ -1961,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>52</v>
@@ -2642,10 +2637,10 @@
     <row r="9" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -2733,7 +2728,7 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AZ9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2744,7 +2739,7 @@
     <row r="10" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>165</v>
@@ -2948,7 +2943,7 @@
     <row r="12" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>167</v>
@@ -3052,7 +3047,7 @@
     <row r="13" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>168</v>
@@ -3156,7 +3151,7 @@
     <row r="14" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>169</v>
@@ -3260,7 +3255,7 @@
     <row r="15" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>170</v>
@@ -3368,7 +3363,7 @@
     <row r="16" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>171</v>
@@ -3395,7 +3390,7 @@
         <v>2700</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3476,7 +3471,7 @@
     <row r="17" spans="1:53" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>
@@ -3503,7 +3498,7 @@
         <v>3300</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -3584,7 +3579,7 @@
     <row r="18" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>173</v>
@@ -3611,7 +3606,7 @@
         <v>1500</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -3686,7 +3681,7 @@
     <row r="19" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>174</v>
@@ -3782,7 +3777,7 @@
     <row r="20" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>175</v>
@@ -3880,7 +3875,7 @@
     <row r="21" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>176</v>
@@ -3980,7 +3975,7 @@
     <row r="22" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>177</v>
@@ -4076,7 +4071,7 @@
     <row r="23" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>178</v>
@@ -4176,7 +4171,7 @@
     <row r="24" spans="1:53" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>179</v>
@@ -4276,7 +4271,7 @@
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>180</v>
@@ -4376,7 +4371,7 @@
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>181</v>
@@ -4478,7 +4473,7 @@
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>182</v>
@@ -4582,10 +4577,10 @@
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>52</v>
@@ -4671,7 +4666,7 @@
       <c r="AW28" s="4"/>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AZ28" s="18" t="str">
         <f>SUBSTITUTE(C28,".","_P.",1)</f>
@@ -4682,7 +4677,7 @@
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>183</v>
@@ -4786,7 +4781,7 @@
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>184</v>
@@ -4890,7 +4885,7 @@
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>185</v>
@@ -4994,7 +4989,7 @@
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>186</v>
@@ -5102,7 +5097,7 @@
     <row r="33" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>187</v>
@@ -5210,7 +5205,7 @@
     <row r="34" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>188</v>
@@ -5318,7 +5313,7 @@
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>189</v>
@@ -5516,7 +5511,7 @@
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>191</v>
@@ -5616,7 +5611,7 @@
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>192</v>
@@ -5712,7 +5707,7 @@
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>193</v>
@@ -5812,7 +5807,7 @@
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>194</v>
@@ -5910,7 +5905,7 @@
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>195</v>
@@ -6010,7 +6005,7 @@
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>196</v>
@@ -6106,7 +6101,7 @@
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>197</v>
@@ -6206,7 +6201,7 @@
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>198</v>
@@ -6308,7 +6303,7 @@
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>199</v>
@@ -6412,7 +6407,7 @@
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>200</v>
@@ -6512,7 +6507,7 @@
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>201</v>
@@ -6616,7 +6611,7 @@
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>202</v>
@@ -6724,7 +6719,7 @@
     <row r="49" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>203</v>
@@ -6832,7 +6827,7 @@
     <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>204</v>
@@ -6934,7 +6929,7 @@
     <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>205</v>
@@ -7030,7 +7025,7 @@
     <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>206</v>
@@ -7130,7 +7125,7 @@
     <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>207</v>
@@ -7226,10 +7221,10 @@
     <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>52</v>
@@ -7311,7 +7306,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="4"/>
       <c r="AY54" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AZ54" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7322,10 +7317,10 @@
     <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>52</v>
@@ -7409,7 +7404,7 @@
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
       <c r="AY55" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AZ55" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7420,10 +7415,10 @@
     <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -7505,7 +7500,7 @@
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
       <c r="AY56" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AZ56" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7516,10 +7511,10 @@
     <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>52</v>
@@ -7603,7 +7598,7 @@
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
       <c r="AY57" s="4" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="AZ57" s="18" t="str">
         <f>SUBSTITUTE(C57,".","_P.",1)</f>
@@ -7614,10 +7609,10 @@
     <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>52</v>
@@ -7699,7 +7694,7 @@
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
       <c r="AY58" s="4" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="AZ58" s="18" t="str">
         <f>SUBSTITUTE(C58,".","_P.",1)</f>
@@ -7710,10 +7705,10 @@
     <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>52</v>
@@ -7795,7 +7790,7 @@
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
       <c r="AY59" s="4" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="AZ59" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7806,10 +7801,10 @@
     <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
@@ -7891,7 +7886,7 @@
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
       <c r="AY60" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AZ60" s="18" t="str">
         <f t="shared" si="0"/>
@@ -7902,10 +7897,10 @@
     <row r="61" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>52</v>
@@ -7989,7 +7984,7 @@
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
       <c r="AY61" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AZ61" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8000,10 +7995,10 @@
     <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>52</v>
@@ -8085,7 +8080,7 @@
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
       <c r="AY62" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AZ62" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8096,10 +8091,10 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>52</v>
@@ -8183,7 +8178,7 @@
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
       <c r="AY63" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ63" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8194,10 +8189,10 @@
     <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>52</v>
@@ -8283,7 +8278,7 @@
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
       <c r="AY64" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AZ64" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8294,10 +8289,10 @@
     <row r="65" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>52</v>
@@ -8389,7 +8384,7 @@
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
       <c r="AY65" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AZ65" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8400,10 +8395,10 @@
     <row r="66" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>52</v>
@@ -8487,7 +8482,7 @@
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
       <c r="AY66" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AZ66" s="18" t="str">
         <f t="shared" si="0"/>
@@ -8498,10 +8493,10 @@
     <row r="67" spans="1:53" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>52</v>
@@ -8591,7 +8586,7 @@
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AZ67" s="18" t="str">
         <f t="shared" ref="AZ67" si="1">SUBSTITUTE(C67,".","_P.",1)</f>
@@ -8811,25 +8806,25 @@
         <v>113</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -8838,7 +8833,7 @@
         <v>114</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>58</v>
@@ -8856,7 +8851,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>118</v>
@@ -8868,7 +8863,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>114</v>
@@ -8885,10 +8880,10 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4" s="17">
         <v>1</v>
@@ -8897,7 +8892,7 @@
         <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>115</v>
@@ -8915,7 +8910,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>119</v>
@@ -8927,7 +8922,7 @@
         <v>115</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>58</v>
@@ -8945,7 +8940,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>120</v>
@@ -8957,7 +8952,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>114</v>
@@ -8975,7 +8970,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>121</v>
@@ -8987,7 +8982,7 @@
         <v>116</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>115</v>
@@ -9005,7 +9000,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>122</v>
@@ -9017,7 +9012,7 @@
         <v>114</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>58</v>
@@ -9035,7 +9030,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>123</v>
@@ -9047,7 +9042,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>114</v>
@@ -9064,10 +9059,10 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
@@ -9076,10 +9071,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H10" s="22">
         <v>1300</v>
@@ -9094,7 +9089,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>124</v>
@@ -9106,7 +9101,7 @@
         <v>117</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>58</v>
@@ -9124,7 +9119,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>125</v>
@@ -9136,7 +9131,7 @@
         <v>115</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>114</v>
@@ -9154,7 +9149,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>126</v>
@@ -9166,7 +9161,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>115</v>
@@ -9183,7 +9178,7 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>127</v>
@@ -9195,7 +9190,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>58</v>
@@ -9212,7 +9207,7 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>128</v>
@@ -9224,7 +9219,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>114</v>
@@ -9241,10 +9236,10 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D16" s="17">
         <v>1.5</v>
@@ -9253,7 +9248,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>115</v>
@@ -9270,7 +9265,7 @@
     </row>
     <row r="17" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>129</v>
@@ -9282,7 +9277,7 @@
         <v>115</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>58</v>
@@ -9299,7 +9294,7 @@
     </row>
     <row r="18" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>130</v>
@@ -9311,7 +9306,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>114</v>
@@ -9328,10 +9323,10 @@
     </row>
     <row r="19" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D19" s="17">
         <v>1.5</v>
@@ -9340,7 +9335,7 @@
         <v>115</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>115</v>
@@ -9357,10 +9352,10 @@
     </row>
     <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D20" s="17">
         <v>3</v>
@@ -9369,7 +9364,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>58</v>
@@ -9386,10 +9381,10 @@
     </row>
     <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21" s="17">
         <v>3</v>
@@ -9398,7 +9393,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>114</v>
@@ -9415,10 +9410,10 @@
     </row>
     <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D22" s="17">
         <v>3</v>
@@ -9427,10 +9422,10 @@
         <v>114</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H22" s="22">
         <v>1300</v>
@@ -9444,7 +9439,7 @@
     </row>
     <row r="23" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>131</v>
@@ -9456,7 +9451,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>58</v>
@@ -9473,7 +9468,7 @@
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>132</v>
@@ -9485,7 +9480,7 @@
         <v>115</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>114</v>
@@ -9502,7 +9497,7 @@
     </row>
     <row r="25" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>133</v>
@@ -9514,7 +9509,7 @@
         <v>115</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>115</v>

--- a/Support/Sunac2019/Data/原型数据.xlsx
+++ b/Support/Sunac2019/Data/原型数据.xlsx
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD4" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Support/Sunac2019/Data/原型数据.xlsx
+++ b/Support/Sunac2019/Data/原型数据.xlsx
@@ -1742,8 +1742,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="AW67" sqref="AW67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8445,7 +8447,9 @@
       </c>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
+      <c r="Y66" s="4">
+        <v>900</v>
+      </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="10" t="s">
         <v>58</v>
@@ -8543,7 +8547,9 @@
       </c>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
+      <c r="Y67" s="4">
+        <v>900</v>
+      </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="10" t="s">
         <v>58</v>
@@ -8583,7 +8589,9 @@
       </c>
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
-      <c r="AW67" s="4"/>
+      <c r="AW67" s="4">
+        <v>600</v>
+      </c>
       <c r="AX67" s="4"/>
       <c r="AY67" s="4" t="s">
         <v>218</v>
